--- a/reports/D4/data/SEMuS-ExecutionTime.xlsx
+++ b/reports/D4/data/SEMuS-ExecutionTime.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscar.cornejo/Workspace/FAQAS/reports/D4/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9538553-5F19-9442-9E57-60F7BD0E2371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBFDA85-B200-4E4A-9690-BF79409C9600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="500" windowWidth="28040" windowHeight="16500" activeTab="1" xr2:uid="{BF4B38DB-0FBD-F54E-9FEE-D7D6DC272548}"/>
   </bookViews>
   <sheets>
     <sheet name="ASN" sheetId="1" r:id="rId1"/>
     <sheet name="Chart1" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="MLFS" sheetId="2" r:id="rId4"/>
+    <sheet name="ESAIL" sheetId="5" r:id="rId3"/>
+    <sheet name="LIBUTIL" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
+    <sheet name="MLFS" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1:$A$5995</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$1:$A$5995</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$1:$A$5995</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$1:$A$5994</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$1:$A$5994</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
   <si>
     <t>min</t>
   </si>
@@ -106,10 +107,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,7 +351,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1489,7 +1491,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9313333" cy="6067778"/>
+    <xdr:ext cx="9299222" cy="6053667"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
@@ -1555,7 +1557,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD0BFAE4-DD83-A44D-A75B-951D370543A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D75D0C-FB4E-0943-8986-43D7C3F52EAB}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -1566,7 +1568,7 @@
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="0" y="0"/>
-          <a:ext cx="9313333" cy="6067778"/>
+          <a:ext cx="9299222" cy="6053667"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1978,8 +1980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96C8C3C-4B1E-8B44-B2BE-DA04ABE02F46}">
   <dimension ref="A1:C2094"/>
   <sheetViews>
-    <sheetView topLeftCell="A2070" workbookViewId="0">
-      <selection activeCell="A2088" sqref="A1:A2088"/>
+    <sheetView topLeftCell="A2080" workbookViewId="0">
+      <selection activeCell="A2089" sqref="A2089:C2094"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12508,11 +12510,787 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C915A239-F776-184C-A157-3D0FB10BBCE1}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>21.094000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>21.241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>21.419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>35.043999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>21.302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f>MIN(A1:A5)</f>
+        <v>21.094000000000001</v>
+      </c>
+      <c r="B6">
+        <f>A6/60</f>
+        <v>0.35156666666666669</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f>MAX(A1:A5)</f>
+        <v>35.043999999999997</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:B11" si="0">A7/60</f>
+        <v>0.58406666666666662</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f>MEDIAN(A1:A5)</f>
+        <v>21.302</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.35503333333333331</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f>AVERAGE(A1:A5)</f>
+        <v>24.02</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.40033333333333332</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f>STDEV(A1:A5)</f>
+        <v>6.1637167764263827</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.10272861294043971</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f>SUM(A1:A5)</f>
+        <v>120.1</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>2.0016666666666665</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6620825E-CD03-CF49-89AA-299B2636D513}">
+  <dimension ref="A1:C119"/>
+  <sheetViews>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="A113" sqref="A1:A113"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>21.009</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>21.117999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>26.533999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20.835000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>22.622</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>27.390999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>25.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>23.667000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>21.82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>25.120999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>32.945999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>20.792000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>20.253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>21.28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>27.645</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15.855</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16.675999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>30.364000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19.655999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>16.588000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>17.773</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>16.236999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22.17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>29.503</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>18.539000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>20.827999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26.779</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>21.242999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>20.222999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>31.416</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>28.215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>21.425000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>18.913</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>19.291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>21.027999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>21.84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>20.736000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>22.029</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>19.472999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>24.696999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>18.004000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>32.908999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>24.648</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>18.797000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>20.623999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>21.081</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>20.878</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>20.975999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>20.951000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>20.631</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>25.687000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>16.716999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>16.716999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>18.797000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>20.623999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>21.081</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>20.878</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>20.975999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>20.951000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>20.631</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>25.687000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>23.396999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>26.600999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>25.321999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>31.212</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>32.384</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>16.198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>16.117999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>20.638999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>20.084</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>20.477</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>18.024000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>16.809000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>24.286999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>23.995999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>20.407</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>19.782</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>28.021000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>20.946999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>24.11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>23.222999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>18.812000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>17.734000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>20.55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>21.591000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>24.420999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>23.103000000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>25.157</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>17.521000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>33.052</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>23.661000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>19.792999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>21.843</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>20.536000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>22.49</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>17.629000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>23.94</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>32.807000000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>15.933999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>30.437000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>16.989999999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>20.942</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>19.911000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>15.993</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>21.765000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>22.484999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>21.157</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>21.576000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>24.093</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <f>MIN(A1:A113)</f>
+        <v>15.855</v>
+      </c>
+      <c r="B114">
+        <f>A114/60</f>
+        <v>0.26424999999999998</v>
+      </c>
+      <c r="C114" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <f>MAX(A1:A113)</f>
+        <v>33.052</v>
+      </c>
+      <c r="B115">
+        <f t="shared" ref="B115:B119" si="0">A115/60</f>
+        <v>0.55086666666666662</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <f>MEDIAN(A1:A113)</f>
+        <v>21.081</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="0"/>
+        <v>0.35135</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <f>AVERAGE(A1:A113)</f>
+        <v>22.210318584070784</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="0"/>
+        <v>0.37017197640117971</v>
+      </c>
+      <c r="C117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <f>STDEV(A1:A113)</f>
+        <v>4.2211162142290179</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="0"/>
+        <v>7.035193690381697E-2</v>
+      </c>
+      <c r="C118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <f>SUM(A1:A113)</f>
+        <v>2509.7659999999987</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="0"/>
+        <v>41.829433333333313</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93BDD921-D412-AE41-ABA3-A764A71EFD56}">
   <dimension ref="A1:A5994"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5047" sqref="A5047"/>
+    <sheetView topLeftCell="A5851" workbookViewId="0">
+      <selection activeCell="A5853" sqref="A5853:A5857"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -41216,337 +41994,594 @@
       </c>
     </row>
     <row r="5740" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5740" s="2"/>
+      <c r="A5740">
+        <v>21.009</v>
+      </c>
     </row>
     <row r="5741" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5741" s="2"/>
+      <c r="A5741">
+        <v>21.117999999999999</v>
+      </c>
     </row>
     <row r="5742" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5742" s="2"/>
+      <c r="A5742">
+        <v>26.533999999999999</v>
+      </c>
     </row>
     <row r="5743" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5743" s="2"/>
+      <c r="A5743">
+        <v>20.835000000000001</v>
+      </c>
     </row>
     <row r="5744" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5744" s="2"/>
+      <c r="A5744">
+        <v>22.622</v>
+      </c>
     </row>
     <row r="5745" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5745" s="2"/>
+      <c r="A5745">
+        <v>27.390999999999998</v>
+      </c>
     </row>
     <row r="5746" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5746" s="2"/>
+      <c r="A5746">
+        <v>25.23</v>
+      </c>
+    </row>
+    <row r="5747" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5747">
+        <v>23.667000000000002</v>
+      </c>
     </row>
     <row r="5748" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5748" s="2"/>
+      <c r="A5748">
+        <v>21.82</v>
+      </c>
     </row>
     <row r="5749" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5749" s="2"/>
+      <c r="A5749">
+        <v>25.120999999999999</v>
+      </c>
     </row>
     <row r="5750" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5750" s="2"/>
+      <c r="A5750">
+        <v>32.945999999999998</v>
+      </c>
     </row>
     <row r="5751" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5751" s="2"/>
+      <c r="A5751">
+        <v>20.792000000000002</v>
+      </c>
+    </row>
+    <row r="5752" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5752">
+        <v>20.253</v>
+      </c>
     </row>
     <row r="5753" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5753" s="2"/>
+      <c r="A5753">
+        <v>21.28</v>
+      </c>
     </row>
     <row r="5754" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5754" s="2"/>
+      <c r="A5754">
+        <v>27.645</v>
+      </c>
     </row>
     <row r="5755" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5755" s="2"/>
+      <c r="A5755">
+        <v>15.855</v>
+      </c>
     </row>
     <row r="5756" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5756" s="2"/>
+      <c r="A5756">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="5757" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5757">
+        <v>16.675999999999998</v>
+      </c>
     </row>
     <row r="5758" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5758" s="2"/>
+      <c r="A5758">
+        <v>30.364000000000001</v>
+      </c>
     </row>
     <row r="5759" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5759" s="2"/>
+      <c r="A5759">
+        <v>19.655999999999999</v>
+      </c>
     </row>
     <row r="5760" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5760" s="2"/>
+      <c r="A5760">
+        <v>16.588000000000001</v>
+      </c>
     </row>
     <row r="5761" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5761" s="2"/>
+      <c r="A5761">
+        <v>17.773</v>
+      </c>
     </row>
     <row r="5762" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5762" s="2"/>
+      <c r="A5762">
+        <v>16.236999999999998</v>
+      </c>
     </row>
     <row r="5763" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5763" s="2"/>
+      <c r="A5763">
+        <v>22.17</v>
+      </c>
     </row>
     <row r="5764" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5764" s="2"/>
+      <c r="A5764">
+        <v>29.503</v>
+      </c>
     </row>
     <row r="5765" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5765" s="2"/>
+      <c r="A5765">
+        <v>18.539000000000001</v>
+      </c>
     </row>
     <row r="5766" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5766" s="2"/>
+      <c r="A5766">
+        <v>20.827999999999999</v>
+      </c>
     </row>
     <row r="5767" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5767" s="2"/>
+      <c r="A5767">
+        <v>26.779</v>
+      </c>
     </row>
     <row r="5768" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5768" s="2"/>
+      <c r="A5768">
+        <v>21.242999999999999</v>
+      </c>
     </row>
     <row r="5769" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5769" s="2"/>
+      <c r="A5769">
+        <v>20.222999999999999</v>
+      </c>
     </row>
     <row r="5770" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5770" s="2"/>
+      <c r="A5770">
+        <v>31.416</v>
+      </c>
     </row>
     <row r="5771" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5771" s="2"/>
+      <c r="A5771">
+        <v>28.215</v>
+      </c>
     </row>
     <row r="5772" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5772" s="2"/>
+      <c r="A5772">
+        <v>21.425000000000001</v>
+      </c>
     </row>
     <row r="5773" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5773" s="2"/>
+      <c r="A5773">
+        <v>18.913</v>
+      </c>
     </row>
     <row r="5774" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5774" s="2"/>
+      <c r="A5774">
+        <v>19.291</v>
+      </c>
+    </row>
+    <row r="5775" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5775">
+        <v>21.027999999999999</v>
+      </c>
     </row>
     <row r="5776" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5776" s="2"/>
+      <c r="A5776">
+        <v>21.84</v>
+      </c>
     </row>
     <row r="5777" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5777" s="2"/>
+      <c r="A5777">
+        <v>20.736000000000001</v>
+      </c>
     </row>
     <row r="5778" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5778" s="2"/>
+      <c r="A5778">
+        <v>22.029</v>
+      </c>
     </row>
     <row r="5779" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5779" s="2"/>
+      <c r="A5779">
+        <v>19.472999999999999</v>
+      </c>
     </row>
     <row r="5780" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5780" s="2"/>
+      <c r="A5780">
+        <v>24.696999999999999</v>
+      </c>
     </row>
     <row r="5781" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5781" s="2"/>
+      <c r="A5781">
+        <v>18.004000000000001</v>
+      </c>
     </row>
     <row r="5782" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5782" s="2"/>
+      <c r="A5782">
+        <v>32.908999999999999</v>
+      </c>
     </row>
     <row r="5783" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5783" s="2"/>
+      <c r="A5783">
+        <v>24.648</v>
+      </c>
     </row>
     <row r="5784" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5784" s="2"/>
+      <c r="A5784">
+        <v>18.797000000000001</v>
+      </c>
     </row>
     <row r="5785" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5785" s="2"/>
+      <c r="A5785">
+        <v>20.623999999999999</v>
+      </c>
     </row>
     <row r="5786" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5786" s="2"/>
+      <c r="A5786">
+        <v>21.081</v>
+      </c>
     </row>
     <row r="5787" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5787" s="2"/>
+      <c r="A5787">
+        <v>20.878</v>
+      </c>
     </row>
     <row r="5788" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5788" s="2"/>
+      <c r="A5788">
+        <v>20.975999999999999</v>
+      </c>
+    </row>
+    <row r="5789" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5789">
+        <v>20.951000000000001</v>
+      </c>
     </row>
     <row r="5790" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5790" s="2"/>
+      <c r="A5790">
+        <v>20.631</v>
+      </c>
     </row>
     <row r="5791" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5791" s="2"/>
+      <c r="A5791">
+        <v>25.687000000000001</v>
+      </c>
     </row>
     <row r="5792" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5792" s="2"/>
+      <c r="A5792" s="3">
+        <v>16.716999999999999</v>
+      </c>
     </row>
     <row r="5793" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5793" s="2"/>
+      <c r="A5793">
+        <v>16.716999999999999</v>
+      </c>
     </row>
     <row r="5794" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5794" s="2"/>
+      <c r="A5794">
+        <v>18.797000000000001</v>
+      </c>
     </row>
     <row r="5795" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5795" s="2"/>
+      <c r="A5795">
+        <v>20.623999999999999</v>
+      </c>
     </row>
     <row r="5796" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5796" s="2"/>
+      <c r="A5796">
+        <v>21.081</v>
+      </c>
     </row>
     <row r="5797" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5797" s="2"/>
+      <c r="A5797">
+        <v>20.878</v>
+      </c>
     </row>
     <row r="5798" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5798" s="2"/>
+      <c r="A5798">
+        <v>20.975999999999999</v>
+      </c>
     </row>
     <row r="5799" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5799" s="2"/>
+      <c r="A5799">
+        <v>20.951000000000001</v>
+      </c>
     </row>
     <row r="5800" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5800" s="2"/>
+      <c r="A5800">
+        <v>20.631</v>
+      </c>
     </row>
     <row r="5801" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5801" s="2"/>
+      <c r="A5801">
+        <v>25.687000000000001</v>
+      </c>
     </row>
     <row r="5802" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5802" s="2"/>
+      <c r="A5802">
+        <v>23.396999999999998</v>
+      </c>
     </row>
     <row r="5803" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5803" s="2"/>
+      <c r="A5803">
+        <v>26.600999999999999</v>
+      </c>
     </row>
     <row r="5804" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5804" s="2"/>
+      <c r="A5804">
+        <v>25.321999999999999</v>
+      </c>
     </row>
     <row r="5805" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5805" s="2"/>
+      <c r="A5805">
+        <v>31.212</v>
+      </c>
     </row>
     <row r="5806" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5806" s="2"/>
+      <c r="A5806">
+        <v>32.384</v>
+      </c>
     </row>
     <row r="5807" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5807" s="2"/>
+      <c r="A5807">
+        <v>16.198</v>
+      </c>
+    </row>
+    <row r="5808" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5808">
+        <v>16.117999999999999</v>
+      </c>
     </row>
     <row r="5809" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5809" s="2"/>
+      <c r="A5809">
+        <v>20.638999999999999</v>
+      </c>
     </row>
     <row r="5810" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5810" s="2"/>
+      <c r="A5810">
+        <v>20.084</v>
+      </c>
     </row>
     <row r="5811" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5811" s="2"/>
+      <c r="A5811">
+        <v>20.477</v>
+      </c>
     </row>
     <row r="5812" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5812" s="2"/>
+      <c r="A5812">
+        <v>18.024000000000001</v>
+      </c>
     </row>
     <row r="5813" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5813" s="2"/>
+      <c r="A5813">
+        <v>16.809000000000001</v>
+      </c>
     </row>
     <row r="5814" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5814" s="2"/>
+      <c r="A5814">
+        <v>24.286999999999999</v>
+      </c>
     </row>
     <row r="5815" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5815" s="2"/>
+      <c r="A5815">
+        <v>23.995999999999999</v>
+      </c>
     </row>
     <row r="5816" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5816" s="2"/>
+      <c r="A5816">
+        <v>20.407</v>
+      </c>
     </row>
     <row r="5817" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5817" s="2"/>
+      <c r="A5817">
+        <v>19.782</v>
+      </c>
     </row>
     <row r="5818" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5818" s="2"/>
+      <c r="A5818">
+        <v>28.021000000000001</v>
+      </c>
     </row>
     <row r="5819" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5819" s="2"/>
+      <c r="A5819">
+        <v>20.946999999999999</v>
+      </c>
     </row>
     <row r="5820" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5820" s="2"/>
+      <c r="A5820">
+        <v>24.11</v>
+      </c>
     </row>
     <row r="5821" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5821" s="2"/>
+      <c r="A5821">
+        <v>23.222999999999999</v>
+      </c>
     </row>
     <row r="5822" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5822" s="2"/>
+      <c r="A5822">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="5823" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5823" s="2"/>
+      <c r="A5823">
+        <v>18.812000000000001</v>
+      </c>
     </row>
     <row r="5824" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5824" s="2"/>
+      <c r="A5824">
+        <v>21.8</v>
+      </c>
     </row>
     <row r="5825" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5825" s="2"/>
+      <c r="A5825">
+        <v>17.734000000000002</v>
+      </c>
     </row>
     <row r="5826" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5826" s="2"/>
+      <c r="A5826">
+        <v>20.55</v>
+      </c>
+    </row>
+    <row r="5827" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5827">
+        <v>21.591000000000001</v>
+      </c>
     </row>
     <row r="5828" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5828" s="2"/>
+      <c r="A5828">
+        <v>24.420999999999999</v>
+      </c>
     </row>
     <row r="5829" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5829" s="2"/>
+      <c r="A5829">
+        <v>23.103000000000002</v>
+      </c>
     </row>
     <row r="5830" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5830" s="2"/>
+      <c r="A5830">
+        <v>25.157</v>
+      </c>
     </row>
     <row r="5831" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5831" s="2"/>
+      <c r="A5831">
+        <v>17.521000000000001</v>
+      </c>
     </row>
     <row r="5832" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5832" s="2"/>
+      <c r="A5832">
+        <v>33.052</v>
+      </c>
     </row>
     <row r="5833" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5833" s="2"/>
+      <c r="A5833">
+        <v>23.661000000000001</v>
+      </c>
     </row>
     <row r="5834" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5834" s="2"/>
+      <c r="A5834">
+        <v>19.792999999999999</v>
+      </c>
     </row>
     <row r="5835" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5835" s="2"/>
+      <c r="A5835">
+        <v>21.843</v>
+      </c>
     </row>
     <row r="5836" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5836" s="2"/>
+      <c r="A5836">
+        <v>20.536000000000001</v>
+      </c>
     </row>
     <row r="5837" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5837" s="2"/>
+      <c r="A5837">
+        <v>22.49</v>
+      </c>
     </row>
     <row r="5838" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5838" s="2"/>
+      <c r="A5838">
+        <v>17.629000000000001</v>
+      </c>
     </row>
     <row r="5839" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5839" s="2"/>
+      <c r="A5839">
+        <v>23.94</v>
+      </c>
     </row>
     <row r="5840" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5840" s="2"/>
+      <c r="A5840">
+        <v>32.807000000000002</v>
+      </c>
     </row>
     <row r="5841" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5841" s="2"/>
+      <c r="A5841">
+        <v>26.1</v>
+      </c>
     </row>
     <row r="5842" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5842" s="2"/>
+      <c r="A5842">
+        <v>15.933999999999999</v>
+      </c>
     </row>
     <row r="5843" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5843" s="2"/>
+      <c r="A5843">
+        <v>30.437000000000001</v>
+      </c>
     </row>
     <row r="5844" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5844" s="2"/>
+      <c r="A5844">
+        <v>16.989999999999998</v>
+      </c>
     </row>
     <row r="5845" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5845" s="2"/>
+      <c r="A5845">
+        <v>20.942</v>
+      </c>
     </row>
     <row r="5846" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5846" s="2"/>
+      <c r="A5846">
+        <v>19.911000000000001</v>
+      </c>
     </row>
     <row r="5847" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5847" s="2"/>
+      <c r="A5847">
+        <v>15.993</v>
+      </c>
     </row>
     <row r="5848" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5848" s="2"/>
+      <c r="A5848">
+        <v>21.765000000000001</v>
+      </c>
     </row>
     <row r="5849" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5849" s="2"/>
+      <c r="A5849">
+        <v>22.484999999999999</v>
+      </c>
     </row>
     <row r="5850" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5850" s="2"/>
+      <c r="A5850">
+        <v>21.157</v>
+      </c>
     </row>
     <row r="5851" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5851" s="2"/>
+      <c r="A5851">
+        <v>21.576000000000001</v>
+      </c>
     </row>
     <row r="5852" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5852" s="2"/>
+      <c r="A5852">
+        <v>24.093</v>
+      </c>
     </row>
     <row r="5853" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5853" s="2"/>
+      <c r="A5853">
+        <v>21.094000000000001</v>
+      </c>
     </row>
     <row r="5854" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5854" s="2"/>
+      <c r="A5854">
+        <v>21.241</v>
+      </c>
     </row>
     <row r="5855" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5855" s="2"/>
+      <c r="A5855">
+        <v>21.419</v>
+      </c>
     </row>
     <row r="5856" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5856" s="2"/>
+      <c r="A5856">
+        <v>35.043999999999997</v>
+      </c>
     </row>
     <row r="5857" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5857" s="2"/>
+      <c r="A5857">
+        <v>21.302</v>
+      </c>
     </row>
     <row r="5858" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5858" s="2"/>
@@ -41965,12 +43000,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC35C5EC-7550-B547-8045-DD8C55D22CD9}">
   <dimension ref="A1:C3912"/>
   <sheetViews>
-    <sheetView topLeftCell="A3888" workbookViewId="0">
-      <selection activeCell="A3906" sqref="A1:A3906"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
